--- a/map.xlsx
+++ b/map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -157,57 +157,57 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="9" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="standart" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="standart" xfId="1" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -576,11 +576,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="13"/>
-    <col customWidth="1" max="30" min="2" width="29.7109375"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="29.7109375" customWidth="1" min="2" max="30"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="50" r="1">
+    <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>КАРТА ДИСЦИПЛИН</t>
@@ -1466,6 +1466,6 @@
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="I29:I30"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>